--- a/Laporan Kas/Adaro/Laporan Kas Adaro.xlsx
+++ b/Laporan Kas/Adaro/Laporan Kas Adaro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ssi\Laporan Kas\Adaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D75622-15E9-4742-8FA7-ECDBE4244677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E0972-A002-4793-85E7-2F4713082C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="36" activeTab="42" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="37" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agustus" sheetId="3" r:id="rId1"/>
@@ -57,6 +57,7 @@
     <sheet name="LK-XII001" sheetId="48" r:id="rId42"/>
     <sheet name="LK24-I001" sheetId="49" r:id="rId43"/>
     <sheet name="LK24-I002" sheetId="51" r:id="rId44"/>
+    <sheet name="LK24-I003" sheetId="52" r:id="rId45"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Oktober!$A$3:$D$3</definedName>
@@ -93,7 +94,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>WorkPC:</t>
         </r>
@@ -101,7 +102,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 265.000+100.000
@@ -127,7 +128,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>WorkPC:</t>
         </r>
@@ -135,7 +136,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 260.000+66.000
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7200" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="1672">
   <si>
     <t>No</t>
   </si>
@@ -5129,13 +5130,49 @@
   </si>
   <si>
     <t>Stiker Kaipindo</t>
+  </si>
+  <si>
+    <t>Snack perjalanan ke Banjar jemput P.Ganda</t>
+  </si>
+  <si>
+    <t>Makan pagi ke Banjar jemput P.Ganda</t>
+  </si>
+  <si>
+    <t>Makan siang ke Banjar jemput P. Ganda</t>
+  </si>
+  <si>
+    <t>Kirim Dokumen LK Desember dll</t>
+  </si>
+  <si>
+    <t>Stiker nomor lambung sarana SSI-10 Kelanis</t>
+  </si>
+  <si>
+    <t>Obat Asam Lambung u/Ryo</t>
+  </si>
+  <si>
+    <t>FU MCU an. Firmansyah</t>
+  </si>
+  <si>
+    <t>Internet Bulanan Kelanis</t>
+  </si>
+  <si>
+    <t>Kirim dokumen BAPP kelanis ke HO</t>
+  </si>
+  <si>
+    <t>Bayar Laundry Ibnu Sutowo Januari 2024- 12 kg x 10.000</t>
+  </si>
+  <si>
+    <t>Kirim dokumen  ke HO</t>
+  </si>
+  <si>
+    <t>23 Des 2023 - 24 Jan 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -5146,63 +5183,10 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="169" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5213,24 +5197,85 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5266,7 +5311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -5466,24 +5511,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5494,44 +5600,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5547,48 +5653,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="42" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5596,69 +5702,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5675,11 +5781,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5690,14 +5796,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5717,19 +5823,19 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5747,72 +5853,72 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5847,41 +5953,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5890,14 +5996,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="2" builtinId="7"/>
     <cellStyle name="Currency [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
@@ -5908,8 +6050,158 @@
     <cellStyle name="Currency [0] 7" xfId="9" xr:uid="{53AFEA4A-EFDC-4057-B12F-9B83291DDEEB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{3D310B5C-B017-4DB4-A5D3-8022032023CA}"/>
+    <cellStyle name="Normal 3" xfId="10" xr:uid="{EAE9982A-38FB-4D86-BA54-5C3511E808B8}"/>
   </cellStyles>
-  <dxfs count="292">
+  <dxfs count="299">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -12891,25 +13183,25 @@
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{8C215BC8-E10E-456E-9857-2897A78653CD}">
-      <tableStyleElement type="wholeTable" dxfId="291"/>
-      <tableStyleElement type="headerRow" dxfId="290"/>
-      <tableStyleElement type="totalRow" dxfId="289"/>
-      <tableStyleElement type="firstColumn" dxfId="288"/>
-      <tableStyleElement type="lastColumn" dxfId="287"/>
-      <tableStyleElement type="firstRowStripe" dxfId="286"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="285"/>
+      <tableStyleElement type="wholeTable" dxfId="298"/>
+      <tableStyleElement type="headerRow" dxfId="297"/>
+      <tableStyleElement type="totalRow" dxfId="296"/>
+      <tableStyleElement type="firstColumn" dxfId="295"/>
+      <tableStyleElement type="lastColumn" dxfId="294"/>
+      <tableStyleElement type="firstRowStripe" dxfId="293"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="292"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{0B1A3986-EF82-4BAE-B57E-77AF333070BF}">
-      <tableStyleElement type="headerRow" dxfId="284"/>
-      <tableStyleElement type="totalRow" dxfId="283"/>
-      <tableStyleElement type="firstRowStripe" dxfId="282"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="281"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="280"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="279"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="278"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="277"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="276"/>
-      <tableStyleElement type="pageFieldValues" dxfId="275"/>
+      <tableStyleElement type="headerRow" dxfId="291"/>
+      <tableStyleElement type="totalRow" dxfId="290"/>
+      <tableStyleElement type="firstRowStripe" dxfId="289"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="288"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="287"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="286"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="285"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="284"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="283"/>
+      <tableStyleElement type="pageFieldValues" dxfId="282"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -12936,12 +13228,12 @@
     <sortCondition ref="B3:B131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="274"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tanggal" dataDxfId="273"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rincian" dataDxfId="272"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nilai" dataDxfId="271"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LK" dataDxfId="270"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CC3" dataDxfId="269"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="281"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tanggal" dataDxfId="280"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rincian" dataDxfId="279"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nilai" dataDxfId="278"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LK" dataDxfId="277"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CC3" dataDxfId="276"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12954,12 +13246,12 @@
     <sortCondition ref="C5:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="No" dataDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Tanggal" dataDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Rincian" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Nilai" dataDxfId="216"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="LK" dataDxfId="215"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CC3" dataDxfId="214"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="No" dataDxfId="226"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Tanggal" dataDxfId="225"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Rincian" dataDxfId="224"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Nilai" dataDxfId="223"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="LK" dataDxfId="222"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CC3" dataDxfId="221"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12972,12 +13264,12 @@
     <sortCondition ref="C5:C81"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="No" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Tanggal" dataDxfId="212"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Rincian" dataDxfId="211"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Nilai" dataDxfId="210"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="LK" dataDxfId="209"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CC3" dataDxfId="208"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="No" dataDxfId="220"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Tanggal" dataDxfId="219"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Rincian" dataDxfId="218"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Nilai" dataDxfId="217"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="LK" dataDxfId="216"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CC3" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12990,12 +13282,12 @@
     <sortCondition ref="C3:C86"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="No" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Tanggal" dataDxfId="206"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Rincian" dataDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Nilai" dataDxfId="204"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="LK" dataDxfId="203"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CC" dataDxfId="202"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="No" dataDxfId="214"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Tanggal" dataDxfId="213"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Rincian" dataDxfId="212"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Nilai" dataDxfId="211"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="LK" dataDxfId="210"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CC" dataDxfId="209"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13014,12 +13306,12 @@
     <sortCondition ref="C3:C70"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="No" dataDxfId="201"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Tanggal" dataDxfId="200"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Rincian" dataDxfId="199"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Nilai" dataDxfId="198"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="LK" dataDxfId="197"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="CC" dataDxfId="196"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="No" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Tanggal" dataDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Rincian" dataDxfId="206"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Nilai" dataDxfId="205"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="LK" dataDxfId="204"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="CC" dataDxfId="203"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13038,12 +13330,12 @@
     <sortCondition ref="C3:C70"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="No" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Tanggal" dataDxfId="194"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Rincian" dataDxfId="193"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Nilai" dataDxfId="192"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="LK" dataDxfId="191"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="CC" dataDxfId="190"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="No" dataDxfId="202"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Tanggal" dataDxfId="201"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Rincian" dataDxfId="200"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Nilai" dataDxfId="199"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="LK" dataDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="CC" dataDxfId="197"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13063,12 +13355,12 @@
     <sortCondition ref="C5:C48"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="No" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Tanggal" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Rincian" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Nilai" dataDxfId="186"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="LK" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="CC" dataDxfId="184"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="No" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Tanggal" dataDxfId="195"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Rincian" dataDxfId="194"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Nilai" dataDxfId="193"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="LK" dataDxfId="192"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="CC" dataDxfId="191"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13082,12 +13374,12 @@
     <sortCondition ref="C5:C91"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="No" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Tanggal" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Rincian" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Nilai" dataDxfId="180"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="LK" dataDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="CC" dataDxfId="178"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="No" dataDxfId="190"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Tanggal" dataDxfId="189"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Rincian" dataDxfId="188"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Nilai" dataDxfId="187"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="LK" dataDxfId="186"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="CC" dataDxfId="185"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13107,12 +13399,12 @@
     <sortCondition ref="C5:C35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="No" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Tanggal" dataDxfId="176"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Rincian" dataDxfId="175"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Nilai" dataDxfId="174"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="LK" dataDxfId="173"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="CC" dataDxfId="172"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="No" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Tanggal" dataDxfId="183"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Rincian" dataDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Nilai" dataDxfId="181"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="LK" dataDxfId="180"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="CC" dataDxfId="179"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13126,12 +13418,12 @@
     <sortCondition ref="C5:C45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="No" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Tanggal" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Rincian" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Nilai" dataDxfId="168"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="LK" dataDxfId="167"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="CC" dataDxfId="166"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="No" dataDxfId="178"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Tanggal" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Rincian" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Nilai" dataDxfId="175"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="LK" dataDxfId="174"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="CC" dataDxfId="173"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13145,12 +13437,12 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="No" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Tanggal" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Rincian" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nilai" dataDxfId="162"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="LK" dataDxfId="161"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="CC" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="No" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Tanggal" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Rincian" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nilai" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="LK" dataDxfId="168"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="CC" dataDxfId="167"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13170,12 +13462,12 @@
     <sortCondition ref="D3:D174"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No" dataDxfId="268"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Tanggal" dataDxfId="267"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Rincian" dataDxfId="266"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nilai" dataDxfId="265"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="LK" dataDxfId="264"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CC3" dataDxfId="263"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No" dataDxfId="275"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Tanggal" dataDxfId="274"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Rincian" dataDxfId="273"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nilai" dataDxfId="272"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="LK" dataDxfId="271"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CC3" dataDxfId="270"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13194,12 +13486,12 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="No" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Tanggal" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Rincian" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Nilai" dataDxfId="156"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="LK" dataDxfId="155"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CC" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="No" dataDxfId="166"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Tanggal" dataDxfId="165"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Rincian" dataDxfId="164"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Nilai" dataDxfId="163"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="LK" dataDxfId="162"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CC" dataDxfId="161"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13213,13 +13505,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="No" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Tanggal" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Rincian" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Nilai" dataDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="LK" dataDxfId="149"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CC" dataDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Ket" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="No" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Tanggal" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Rincian" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Nilai" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="LK" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CC" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Ket" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13232,13 +13524,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="No" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Tanggal" dataDxfId="145"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Rincian" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Nilai" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="LK" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CC" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Ket" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="No" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Tanggal" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Rincian" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Nilai" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="LK" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CC" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Ket" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13251,13 +13543,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="No" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Tanggal" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Rincian" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Nilai" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="LK" dataDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="CC" dataDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Ket" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="No" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Tanggal" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Rincian" dataDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Nilai" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="LK" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="CC" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Ket" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13270,13 +13562,13 @@
     <sortCondition ref="C5:C19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="No" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Tanggal" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Rincian" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Nilai" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="LK" dataDxfId="128"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="CC" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="Ket" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="No" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Tanggal" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Rincian" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Nilai" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="LK" dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="CC" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="Ket" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13289,13 +13581,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="No" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Tanggal" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Rincian" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Nilai" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="LK" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="CC" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Ket" dataDxfId="119"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="No" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Tanggal" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Rincian" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Nilai" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="LK" dataDxfId="128"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="CC" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Ket" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13308,13 +13600,13 @@
     <sortCondition ref="C5:C43"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="No" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Tanggal" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Rincian" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Nilai" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="LK" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="CC" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Ket" dataDxfId="112"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="No" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Tanggal" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Rincian" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Nilai" dataDxfId="122"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="LK" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="CC" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Ket" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13327,15 +13619,15 @@
     <sortCondition ref="C5:C27"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="No" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Tanggal" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Rincian" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Nilai" dataDxfId="108">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="No" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Tanggal" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Rincian" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Nilai" dataDxfId="115">
       <calculatedColumnFormula>200000*13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="LK" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="CC" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Ket" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="LK" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="CC" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Ket" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13348,13 +13640,13 @@
     <sortCondition ref="C5:C27"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="No" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Tanggal" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Rincian" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Nilai" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="LK" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="CC" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="Ket" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="No" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Tanggal" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Rincian" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Nilai" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="LK" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="CC" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="Ket" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13367,13 +13659,13 @@
     <sortCondition ref="C5:C21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="No" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="Tanggal" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="Rincian" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Nilai" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="LK" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="CC" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Ket" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="No" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="Tanggal" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="Rincian" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Nilai" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="LK" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="CC" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Ket" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13392,12 +13684,12 @@
     <sortCondition ref="B3:B143"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No" dataDxfId="262"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Tanggal" dataDxfId="261"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Rincian" dataDxfId="260"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Nilai" dataDxfId="259"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="LK" dataDxfId="258"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="CC3" dataDxfId="257"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No" dataDxfId="269"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Tanggal" dataDxfId="268"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Rincian" dataDxfId="267"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Nilai" dataDxfId="266"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="LK" dataDxfId="265"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="CC3" dataDxfId="264"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13410,13 +13702,13 @@
     <sortCondition ref="C5:C20"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="No" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Tanggal" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Rincian" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Nilai" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="LK" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1D00-000006000000}" name="CC" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1D00-000007000000}" name="Ket" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="No" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Tanggal" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Rincian" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Nilai" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="LK" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1D00-000006000000}" name="CC" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1D00-000007000000}" name="Ket" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13429,13 +13721,13 @@
     <sortCondition ref="C5:C20"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="No" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Tanggal" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="Rincian" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Nilai" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="LK" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="CC" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Ket" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="No" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Tanggal" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="Rincian" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Nilai" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="LK" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="CC" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Ket" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13448,13 +13740,13 @@
     <sortCondition ref="C5:C33"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="No" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Tanggal" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Rincian" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Nilai" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="LK" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="CC" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Ket" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="No" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Tanggal" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Rincian" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Nilai" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="LK" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="CC" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Ket" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13467,13 +13759,13 @@
     <sortCondition ref="C5:C33"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="No" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Tanggal" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Rincian" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Nilai" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="LK" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="CC" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Ket" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="No" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Tanggal" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Rincian" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Nilai" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="LK" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="CC" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Ket" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13486,13 +13778,13 @@
     <sortCondition ref="C5:C21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="No" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Tanggal" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Rincian" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Nilai" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="LK" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="CC" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Ket" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="No" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Tanggal" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Rincian" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Nilai" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="LK" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="CC" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Ket" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13505,13 +13797,13 @@
     <sortCondition ref="C5:C21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="No" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Tanggal" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Rincian" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="Nilai" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="LK" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="CC" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Ket" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="No" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Tanggal" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Rincian" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="Nilai" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="LK" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="CC" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Ket" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13524,13 +13816,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="No" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Tanggal" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2300-000003000000}" name="Rincian" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2300-000004000000}" name="Nilai" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2300-000005000000}" name="LK" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2300-000006000000}" name="CC" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2300-000007000000}" name="Ket" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="No" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Tanggal" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2300-000003000000}" name="Rincian" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2300-000004000000}" name="Nilai" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2300-000005000000}" name="LK" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2300-000006000000}" name="CC" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2300-000007000000}" name="Ket" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13543,13 +13835,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="No" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="Tanggal" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2400-000003000000}" name="Rincian" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2400-000004000000}" name="Nilai" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2400-000005000000}" name="LK" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2400-000006000000}" name="CC" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2400-000007000000}" name="Ket" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="No" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="Tanggal" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2400-000003000000}" name="Rincian" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2400-000004000000}" name="Nilai" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2400-000005000000}" name="LK" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2400-000006000000}" name="CC" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2400-000007000000}" name="Ket" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13562,13 +13854,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="No" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Tanggal" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Rincian" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Nilai" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2500-000005000000}" name="LK" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2500-000006000000}" name="CC" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2500-000007000000}" name="Ket" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="No" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Tanggal" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Rincian" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Nilai" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2500-000005000000}" name="LK" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2500-000006000000}" name="CC" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2500-000007000000}" name="Ket" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13581,13 +13873,13 @@
     <sortCondition ref="C6:C27"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="No" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Tanggal" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2600-000003000000}" name="Rincian" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2600-000004000000}" name="Nilai" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2600-000005000000}" name="LK" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2600-000006000000}" name="CC" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2600-000007000000}" name="Ket" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="No" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Tanggal" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2600-000003000000}" name="Rincian" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2600-000004000000}" name="Nilai" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2600-000005000000}" name="LK" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2600-000006000000}" name="CC" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2600-000007000000}" name="Ket" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13603,12 +13895,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="No" dataDxfId="256"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Tanggal" dataDxfId="255"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Deskripsi" dataDxfId="254"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Nominal" dataDxfId="253"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="LK" dataDxfId="252"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CC" dataDxfId="251"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="No" dataDxfId="263"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Tanggal" dataDxfId="262"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Deskripsi" dataDxfId="261"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Nominal" dataDxfId="260"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="LK" dataDxfId="259"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CC" dataDxfId="258"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13621,13 +13913,13 @@
     <sortCondition ref="C6:C34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2700-000001000000}" name="No" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2700-000002000000}" name="Tanggal" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2700-000003000000}" name="Rincian" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2700-000004000000}" name="Nilai" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2700-000005000000}" name="LK" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2700-000006000000}" name="CC" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2700-000007000000}" name="Ket" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2700-000001000000}" name="No" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2700-000002000000}" name="Tanggal" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2700-000003000000}" name="Rincian" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2700-000004000000}" name="Nilai" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2700-000005000000}" name="LK" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2700-000006000000}" name="CC" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2700-000007000000}" name="Ket" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13640,13 +13932,13 @@
     <sortCondition ref="C6:C34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2800-000001000000}" name="No" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2800-000002000000}" name="Tanggal" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2800-000003000000}" name="Rincian" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2800-000004000000}" name="Nilai" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2800-000005000000}" name="LK" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2800-000006000000}" name="CC" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2800-000007000000}" name="Ket" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2800-000001000000}" name="No" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2800-000002000000}" name="Tanggal" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2800-000003000000}" name="Rincian" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2800-000004000000}" name="Nilai" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2800-000005000000}" name="LK" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2800-000006000000}" name="CC" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2800-000007000000}" name="Ket" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13697,13 +13989,32 @@
     <sortCondition ref="C6:C23"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E3D8FAE7-3620-41F7-9540-1C58EE218B8D}" name="No" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E940BA73-AC25-47F8-BE1E-F20882C29BAB}" name="Tanggal" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{60715EBC-9E33-490B-9CDB-E2CB22080899}" name="Rincian" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8A69F1C2-31F2-4523-8129-78D979C9B4A8}" name="Nilai" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{5A18AB90-8918-44E2-843D-F47C139B8617}" name="LK" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{CD0D33A6-E1FD-424D-99BA-3EC3479A0D39}" name="CC" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{DA5D0D60-32C6-48BF-A69B-D063ACA98691}" name="Ket" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E3D8FAE7-3620-41F7-9540-1C58EE218B8D}" name="No" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{E940BA73-AC25-47F8-BE1E-F20882C29BAB}" name="Tanggal" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{60715EBC-9E33-490B-9CDB-E2CB22080899}" name="Rincian" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8A69F1C2-31F2-4523-8129-78D979C9B4A8}" name="Nilai" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5A18AB90-8918-44E2-843D-F47C139B8617}" name="LK" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CD0D33A6-E1FD-424D-99BA-3EC3479A0D39}" name="CC" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{DA5D0D60-32C6-48BF-A69B-D063ACA98691}" name="Ket" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{8CC40487-7B75-4685-88D2-61921350B604}" name="Table1141315161718212223242627282930313233343536373839404142_43444546" displayName="Table1141315161718212223242627282930313233343536373839404142_43444546" ref="B6:H17" totalsRowShown="0">
+  <autoFilter ref="B6:H17" xr:uid="{00000000-0009-0000-0100-00002A000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H17">
+    <sortCondition ref="C6:C17"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{292CD1C4-01CB-455C-A22A-34EFB1EF186D}" name="No" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{28B6A253-74C0-400B-A313-12E10CE0DFBC}" name="Tanggal" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{3A882804-04FD-4076-8485-4D7AF609574A}" name="Rincian" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8AA676F9-18DE-4309-9CBB-2C24A857EAE3}" name="Nilai" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F7E2C015-39A6-494B-829D-4A70CA71AD1D}" name="LK" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{95F2D9B9-51F3-47CA-A79C-7CE00CEB50E3}" name="CC" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{2C28DF1C-EAE7-440B-8046-416F2164776E}" name="Ket" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13719,13 +14030,13 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No" dataDxfId="250"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Tanggal" dataDxfId="249"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Deskripsi" dataDxfId="248"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Nominal" dataDxfId="247"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="LK" dataDxfId="246"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="CC" dataDxfId="245"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Nota" dataDxfId="244"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No" dataDxfId="257"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Tanggal" dataDxfId="256"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Deskripsi" dataDxfId="255"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Nominal" dataDxfId="254"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="LK" dataDxfId="253"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="CC" dataDxfId="252"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Nota" dataDxfId="251"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13735,12 +14046,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table4" displayName="Table4" ref="B5:G81" totalsRowShown="0">
   <autoFilter ref="B5:G81" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="No" dataDxfId="243"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Tanggal" dataDxfId="242"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Rincian" dataDxfId="241"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Nilai" dataDxfId="240"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="LK" dataDxfId="239"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="CC3" dataDxfId="238"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="No" dataDxfId="250"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Tanggal" dataDxfId="249"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Rincian" dataDxfId="248"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Nilai" dataDxfId="247"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="LK" dataDxfId="246"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="CC3" dataDxfId="245"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13750,12 +14061,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table5" displayName="Table5" ref="B5:G57" totalsRowShown="0">
   <autoFilter ref="B5:G57" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="No" dataDxfId="237"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Tanggal" dataDxfId="236"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Rincian" dataDxfId="235"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Nilai" dataDxfId="234"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="LK" dataDxfId="233"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="CC3" dataDxfId="232"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="No" dataDxfId="244"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Tanggal" dataDxfId="243"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Rincian" dataDxfId="242"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Nilai" dataDxfId="241"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="LK" dataDxfId="240"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="CC3" dataDxfId="239"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13765,12 +14076,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table6" displayName="Table6" ref="B5:G73" totalsRowShown="0">
   <autoFilter ref="B5:G73" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="No" dataDxfId="231"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Tanggal" dataDxfId="230"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Rincian" dataDxfId="229"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Nilai" dataDxfId="228"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="LK" dataDxfId="227"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="CC3" dataDxfId="226"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="No" dataDxfId="238"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Tanggal" dataDxfId="237"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Rincian" dataDxfId="236"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Nilai" dataDxfId="235"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="LK" dataDxfId="234"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="CC3" dataDxfId="233"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13780,12 +14091,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table68" displayName="Table68" ref="B5:G68" totalsRowShown="0">
   <autoFilter ref="B5:G68" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="No" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tanggal" dataDxfId="224"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Rincian" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Nilai" dataDxfId="222"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="LK" dataDxfId="221"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="CC3" dataDxfId="220"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="No" dataDxfId="232"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tanggal" dataDxfId="231"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Rincian" dataDxfId="230"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Nilai" dataDxfId="229"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="LK" dataDxfId="228"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="CC3" dataDxfId="227"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -53952,7 +54263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5279C456-CD9E-48C3-B089-260FCDFBB2C9}">
   <dimension ref="B3:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -54285,7 +54596,7 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -54714,7 +55025,308 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C42F1-3560-44DE-A697-4F3E99685AA5}">
+  <dimension ref="B3:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" activeCellId="1" sqref="E14:E17 E7:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="131" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C3" s="189" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D3" s="189"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C4" s="190" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D4" s="189"/>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="191">
+        <v>1</v>
+      </c>
+      <c r="C7" s="192">
+        <v>45283</v>
+      </c>
+      <c r="D7" s="193" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E7" s="194">
+        <v>73000</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="195">
+        <v>2</v>
+      </c>
+      <c r="C8" s="196">
+        <v>45284</v>
+      </c>
+      <c r="D8" s="197" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E8" s="198">
+        <v>26000</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="195">
+        <v>3</v>
+      </c>
+      <c r="C9" s="196">
+        <v>45284</v>
+      </c>
+      <c r="D9" s="197" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E9" s="198">
+        <v>25000</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="195">
+        <v>4</v>
+      </c>
+      <c r="C10" s="196">
+        <v>45285</v>
+      </c>
+      <c r="D10" s="197" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E10" s="198">
+        <v>25100</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="195">
+        <v>5</v>
+      </c>
+      <c r="C11" s="196">
+        <v>45294</v>
+      </c>
+      <c r="D11" s="197" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E11" s="198">
+        <v>25000</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G11" s="199" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="195">
+        <v>6</v>
+      </c>
+      <c r="C12" s="196">
+        <v>45294</v>
+      </c>
+      <c r="D12" s="197" t="s">
+        <v>1665</v>
+      </c>
+      <c r="E12" s="198">
+        <v>69000</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="200">
+        <v>7</v>
+      </c>
+      <c r="C13" s="201">
+        <v>45299</v>
+      </c>
+      <c r="D13" s="202" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E13" s="203">
+        <v>80000</v>
+      </c>
+      <c r="F13" s="204" t="s">
+        <v>589</v>
+      </c>
+      <c r="G13" s="205"/>
+      <c r="H13" s="150"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="195">
+        <v>8</v>
+      </c>
+      <c r="C14" s="196">
+        <v>45302</v>
+      </c>
+      <c r="D14" s="197" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E14" s="198">
+        <v>199900</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="195">
+        <v>9</v>
+      </c>
+      <c r="C15" s="196">
+        <v>45309</v>
+      </c>
+      <c r="D15" s="197" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E15" s="198">
+        <v>36000</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="195">
+        <v>10</v>
+      </c>
+      <c r="C16" s="196">
+        <v>45315</v>
+      </c>
+      <c r="D16" s="197" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E16" s="198">
+        <v>120000</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="195">
+        <v>11</v>
+      </c>
+      <c r="C17" s="196">
+        <v>45315</v>
+      </c>
+      <c r="D17" s="197" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E17" s="198">
+        <v>36000</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Laporan Kas/Adaro/Laporan Kas Adaro.xlsx
+++ b/Laporan Kas/Adaro/Laporan Kas Adaro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ssi\Laporan Kas\Adaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46E0972-A002-4793-85E7-2F4713082C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A0E068-E8E2-4FFF-B951-BC051691B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="37" activeTab="44" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="45" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agustus" sheetId="3" r:id="rId1"/>
@@ -58,6 +58,7 @@
     <sheet name="LK24-I001" sheetId="49" r:id="rId43"/>
     <sheet name="LK24-I002" sheetId="51" r:id="rId44"/>
     <sheet name="LK24-I003" sheetId="52" r:id="rId45"/>
+    <sheet name="LK24-I003 (2)" sheetId="53" r:id="rId46"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Oktober!$A$3:$D$3</definedName>
@@ -150,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7281" uniqueCount="1681">
   <si>
     <t>No</t>
   </si>
@@ -5166,6 +5167,33 @@
   </si>
   <si>
     <t>23 Des 2023 - 24 Jan 2024</t>
+  </si>
+  <si>
+    <t>28 Jan 2024 - 15 Feb 2024</t>
+  </si>
+  <si>
+    <t>Air minum aqua</t>
+  </si>
+  <si>
+    <t>Cuci mobil A637 pajero</t>
+  </si>
+  <si>
+    <t>Transport tanjung ke banjarmasin Fahmi aziz</t>
+  </si>
+  <si>
+    <t>Transport rumah ke bandara Fahmi aziz</t>
+  </si>
+  <si>
+    <t>Transport bandara ke rumah Fahmi aziz</t>
+  </si>
+  <si>
+    <t>Transport banjarmasin ke tanjung Fahmi aziz</t>
+  </si>
+  <si>
+    <t>Kartu tol brizzi u/ bayar parkir bandara</t>
+  </si>
+  <si>
+    <t>Makan perjalanan wawan (Antar orang adaro ke Bandara)</t>
   </si>
 </sst>
 </file>
@@ -5185,12 +5213,19 @@
     <numFmt numFmtId="169" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="170" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5276,6 +5311,19 @@
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5572,24 +5620,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5600,44 +5654,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5653,48 +5707,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="42" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5702,69 +5756,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5781,11 +5835,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5796,14 +5850,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5823,19 +5877,19 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5853,72 +5907,72 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="42" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5953,41 +6007,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="8" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="2" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="4" fillId="4" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5996,50 +6083,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="11" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="2" builtinId="7"/>
     <cellStyle name="Currency [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
@@ -6048,11 +6123,162 @@
     <cellStyle name="Currency [0] 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Currency [0] 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Currency [0] 7" xfId="9" xr:uid="{53AFEA4A-EFDC-4057-B12F-9B83291DDEEB}"/>
+    <cellStyle name="Currency [0] 8" xfId="12" xr:uid="{2C4791D5-3910-4851-A4E8-E9011E40EBCF}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="8" xr:uid="{3D310B5C-B017-4DB4-A5D3-8022032023CA}"/>
     <cellStyle name="Normal 3" xfId="10" xr:uid="{EAE9982A-38FB-4D86-BA54-5C3511E808B8}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{7190AAE9-45D8-4C56-A546-5AE9911E8DF5}"/>
   </cellStyles>
-  <dxfs count="299">
+  <dxfs count="306">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -13183,25 +13409,25 @@
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{8C215BC8-E10E-456E-9857-2897A78653CD}">
-      <tableStyleElement type="wholeTable" dxfId="298"/>
-      <tableStyleElement type="headerRow" dxfId="297"/>
-      <tableStyleElement type="totalRow" dxfId="296"/>
-      <tableStyleElement type="firstColumn" dxfId="295"/>
-      <tableStyleElement type="lastColumn" dxfId="294"/>
-      <tableStyleElement type="firstRowStripe" dxfId="293"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="292"/>
+      <tableStyleElement type="wholeTable" dxfId="305"/>
+      <tableStyleElement type="headerRow" dxfId="304"/>
+      <tableStyleElement type="totalRow" dxfId="303"/>
+      <tableStyleElement type="firstColumn" dxfId="302"/>
+      <tableStyleElement type="lastColumn" dxfId="301"/>
+      <tableStyleElement type="firstRowStripe" dxfId="300"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="299"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{0B1A3986-EF82-4BAE-B57E-77AF333070BF}">
-      <tableStyleElement type="headerRow" dxfId="291"/>
-      <tableStyleElement type="totalRow" dxfId="290"/>
-      <tableStyleElement type="firstRowStripe" dxfId="289"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="288"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="287"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="286"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="285"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="284"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="283"/>
-      <tableStyleElement type="pageFieldValues" dxfId="282"/>
+      <tableStyleElement type="headerRow" dxfId="298"/>
+      <tableStyleElement type="totalRow" dxfId="297"/>
+      <tableStyleElement type="firstRowStripe" dxfId="296"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="295"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="294"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="293"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="292"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="291"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="290"/>
+      <tableStyleElement type="pageFieldValues" dxfId="289"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -13228,12 +13454,12 @@
     <sortCondition ref="B3:B131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="281"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tanggal" dataDxfId="280"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rincian" dataDxfId="279"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nilai" dataDxfId="278"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LK" dataDxfId="277"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CC3" dataDxfId="276"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No" dataDxfId="288"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tanggal" dataDxfId="287"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Rincian" dataDxfId="286"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Nilai" dataDxfId="285"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LK" dataDxfId="284"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CC3" dataDxfId="283"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13246,12 +13472,12 @@
     <sortCondition ref="C5:C35"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="No" dataDxfId="226"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Tanggal" dataDxfId="225"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Rincian" dataDxfId="224"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Nilai" dataDxfId="223"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="LK" dataDxfId="222"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CC3" dataDxfId="221"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="No" dataDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Tanggal" dataDxfId="232"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Rincian" dataDxfId="231"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Nilai" dataDxfId="230"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="LK" dataDxfId="229"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="CC3" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13264,12 +13490,12 @@
     <sortCondition ref="C5:C81"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="No" dataDxfId="220"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Tanggal" dataDxfId="219"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Rincian" dataDxfId="218"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Nilai" dataDxfId="217"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="LK" dataDxfId="216"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CC3" dataDxfId="215"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="No" dataDxfId="227"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Tanggal" dataDxfId="226"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Rincian" dataDxfId="225"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Nilai" dataDxfId="224"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="LK" dataDxfId="223"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="CC3" dataDxfId="222"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13282,12 +13508,12 @@
     <sortCondition ref="C3:C86"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="No" dataDxfId="214"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Tanggal" dataDxfId="213"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Rincian" dataDxfId="212"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Nilai" dataDxfId="211"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="LK" dataDxfId="210"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CC" dataDxfId="209"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="No" dataDxfId="221"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Tanggal" dataDxfId="220"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Rincian" dataDxfId="219"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Nilai" dataDxfId="218"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="LK" dataDxfId="217"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="CC" dataDxfId="216"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13306,12 +13532,12 @@
     <sortCondition ref="C3:C70"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="No" dataDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Tanggal" dataDxfId="207"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Rincian" dataDxfId="206"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Nilai" dataDxfId="205"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="LK" dataDxfId="204"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="CC" dataDxfId="203"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="No" dataDxfId="215"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Tanggal" dataDxfId="214"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Rincian" dataDxfId="213"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Nilai" dataDxfId="212"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="LK" dataDxfId="211"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="CC" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13330,12 +13556,12 @@
     <sortCondition ref="C3:C70"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="No" dataDxfId="202"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Tanggal" dataDxfId="201"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Rincian" dataDxfId="200"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Nilai" dataDxfId="199"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="LK" dataDxfId="198"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="CC" dataDxfId="197"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="No" dataDxfId="209"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Tanggal" dataDxfId="208"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Rincian" dataDxfId="207"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Nilai" dataDxfId="206"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="LK" dataDxfId="205"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="CC" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13355,12 +13581,12 @@
     <sortCondition ref="C5:C48"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="No" dataDxfId="196"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Tanggal" dataDxfId="195"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Rincian" dataDxfId="194"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Nilai" dataDxfId="193"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="LK" dataDxfId="192"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="CC" dataDxfId="191"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="No" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Tanggal" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Rincian" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Nilai" dataDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="LK" dataDxfId="199"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="CC" dataDxfId="198"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13374,12 +13600,12 @@
     <sortCondition ref="C5:C91"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="No" dataDxfId="190"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Tanggal" dataDxfId="189"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Rincian" dataDxfId="188"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Nilai" dataDxfId="187"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="LK" dataDxfId="186"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="CC" dataDxfId="185"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="No" dataDxfId="197"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Tanggal" dataDxfId="196"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Rincian" dataDxfId="195"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Nilai" dataDxfId="194"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="LK" dataDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="CC" dataDxfId="192"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13399,12 +13625,12 @@
     <sortCondition ref="C5:C35"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="No" dataDxfId="184"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Tanggal" dataDxfId="183"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Rincian" dataDxfId="182"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Nilai" dataDxfId="181"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="LK" dataDxfId="180"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="CC" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="No" dataDxfId="191"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Tanggal" dataDxfId="190"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Rincian" dataDxfId="189"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Nilai" dataDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="LK" dataDxfId="187"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="CC" dataDxfId="186"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13418,12 +13644,12 @@
     <sortCondition ref="C5:C45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="No" dataDxfId="178"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Tanggal" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Rincian" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Nilai" dataDxfId="175"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="LK" dataDxfId="174"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="CC" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="No" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Tanggal" dataDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Rincian" dataDxfId="183"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Nilai" dataDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="LK" dataDxfId="181"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="CC" dataDxfId="180"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13437,12 +13663,12 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="No" dataDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Tanggal" dataDxfId="171"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Rincian" dataDxfId="170"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nilai" dataDxfId="169"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="LK" dataDxfId="168"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="CC" dataDxfId="167"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="No" dataDxfId="179"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Tanggal" dataDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Rincian" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Nilai" dataDxfId="176"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="LK" dataDxfId="175"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="CC" dataDxfId="174"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13462,12 +13688,12 @@
     <sortCondition ref="D3:D174"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No" dataDxfId="275"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Tanggal" dataDxfId="274"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Rincian" dataDxfId="273"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nilai" dataDxfId="272"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="LK" dataDxfId="271"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CC3" dataDxfId="270"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="No" dataDxfId="282"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Tanggal" dataDxfId="281"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Rincian" dataDxfId="280"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Nilai" dataDxfId="279"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="LK" dataDxfId="278"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="CC3" dataDxfId="277"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13486,12 +13712,12 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="No" dataDxfId="166"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Tanggal" dataDxfId="165"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Rincian" dataDxfId="164"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Nilai" dataDxfId="163"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="LK" dataDxfId="162"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CC" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="No" dataDxfId="173"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Tanggal" dataDxfId="172"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Rincian" dataDxfId="171"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Nilai" dataDxfId="170"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="LK" dataDxfId="169"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="CC" dataDxfId="168"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="Ket"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13505,13 +13731,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="No" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Tanggal" dataDxfId="159"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Rincian" dataDxfId="158"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Nilai" dataDxfId="157"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="LK" dataDxfId="156"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CC" dataDxfId="155"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Ket" dataDxfId="154"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="No" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Tanggal" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Rincian" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Nilai" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="LK" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="CC" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="Ket" dataDxfId="161"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13524,13 +13750,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="No" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Tanggal" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Rincian" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Nilai" dataDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="LK" dataDxfId="149"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CC" dataDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Ket" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="No" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Tanggal" dataDxfId="159"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Rincian" dataDxfId="158"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Nilai" dataDxfId="157"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="LK" dataDxfId="156"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="CC" dataDxfId="155"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="Ket" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13543,13 +13769,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="No" dataDxfId="146"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Tanggal" dataDxfId="145"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Rincian" dataDxfId="144"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Nilai" dataDxfId="143"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="LK" dataDxfId="142"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="CC" dataDxfId="141"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Ket" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="No" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Tanggal" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Rincian" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Nilai" dataDxfId="150"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="LK" dataDxfId="149"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="CC" dataDxfId="148"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="Ket" dataDxfId="147"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13562,13 +13788,13 @@
     <sortCondition ref="C5:C19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="No" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Tanggal" dataDxfId="138"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Rincian" dataDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Nilai" dataDxfId="136"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="LK" dataDxfId="135"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="CC" dataDxfId="134"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="Ket" dataDxfId="133"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="No" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Tanggal" dataDxfId="145"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Rincian" dataDxfId="144"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Nilai" dataDxfId="143"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="LK" dataDxfId="142"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="CC" dataDxfId="141"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="Ket" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13581,13 +13807,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="No" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Tanggal" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Rincian" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Nilai" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="LK" dataDxfId="128"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="CC" dataDxfId="127"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Ket" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="No" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Tanggal" dataDxfId="138"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Rincian" dataDxfId="137"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Nilai" dataDxfId="136"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="LK" dataDxfId="135"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="CC" dataDxfId="134"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="Ket" dataDxfId="133"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13600,13 +13826,13 @@
     <sortCondition ref="C5:C43"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="No" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Tanggal" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Rincian" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Nilai" dataDxfId="122"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="LK" dataDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="CC" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Ket" dataDxfId="119"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="No" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Tanggal" dataDxfId="131"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Rincian" dataDxfId="130"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Nilai" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="LK" dataDxfId="128"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="CC" dataDxfId="127"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="Ket" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13619,15 +13845,15 @@
     <sortCondition ref="C5:C27"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="No" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Tanggal" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Rincian" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Nilai" dataDxfId="115">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="No" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="Tanggal" dataDxfId="124"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="Rincian" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="Nilai" dataDxfId="122">
       <calculatedColumnFormula>200000*13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="LK" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="CC" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Ket" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="LK" dataDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="CC" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="Ket" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13640,13 +13866,13 @@
     <sortCondition ref="C5:C27"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="No" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Tanggal" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Rincian" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Nilai" dataDxfId="108"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="LK" dataDxfId="107"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="CC" dataDxfId="106"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="Ket" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="No" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="Tanggal" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="Rincian" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="Nilai" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="LK" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="CC" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="Ket" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13659,13 +13885,13 @@
     <sortCondition ref="C5:C21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="No" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="Tanggal" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="Rincian" dataDxfId="102"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Nilai" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="LK" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="CC" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Ket" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="No" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="Tanggal" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="Rincian" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="Nilai" dataDxfId="108"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="LK" dataDxfId="107"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="CC" dataDxfId="106"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="Ket" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13684,12 +13910,12 @@
     <sortCondition ref="B3:B143"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No" dataDxfId="269"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Tanggal" dataDxfId="268"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Rincian" dataDxfId="267"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Nilai" dataDxfId="266"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="LK" dataDxfId="265"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="CC3" dataDxfId="264"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="No" dataDxfId="276"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Tanggal" dataDxfId="275"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Rincian" dataDxfId="274"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Nilai" dataDxfId="273"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="LK" dataDxfId="272"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="CC3" dataDxfId="271"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13702,13 +13928,13 @@
     <sortCondition ref="C5:C20"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="No" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Tanggal" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Rincian" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Nilai" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="LK" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1D00-000006000000}" name="CC" dataDxfId="92"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1D00-000007000000}" name="Ket" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="No" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="Tanggal" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="Rincian" dataDxfId="102"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="Nilai" dataDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="LK" dataDxfId="100"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1D00-000006000000}" name="CC" dataDxfId="99"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1D00-000007000000}" name="Ket" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13721,13 +13947,13 @@
     <sortCondition ref="C5:C20"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="No" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Tanggal" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="Rincian" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Nilai" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="LK" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="CC" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Ket" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="No" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="Tanggal" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="Rincian" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="Nilai" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="LK" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="CC" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="Ket" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13740,13 +13966,13 @@
     <sortCondition ref="C5:C33"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="No" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Tanggal" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Rincian" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Nilai" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="LK" dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="CC" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Ket" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="No" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Tanggal" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="Rincian" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="Nilai" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="LK" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="CC" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="Ket" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13759,13 +13985,13 @@
     <sortCondition ref="C5:C33"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="No" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Tanggal" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Rincian" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Nilai" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="LK" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="CC" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Ket" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="No" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="Tanggal" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="Rincian" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="Nilai" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="LK" dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="CC" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="Ket" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13778,13 +14004,13 @@
     <sortCondition ref="C5:C21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="No" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Tanggal" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Rincian" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Nilai" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="LK" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="CC" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Ket" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="No" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Tanggal" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="Rincian" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="Nilai" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="LK" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="CC" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="Ket" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13797,13 +14023,13 @@
     <sortCondition ref="C5:C21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="No" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Tanggal" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Rincian" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="Nilai" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="LK" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="CC" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Ket" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="No" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="Tanggal" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="Rincian" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="Nilai" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="LK" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="CC" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="Ket" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13816,13 +14042,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="No" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Tanggal" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2300-000003000000}" name="Rincian" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2300-000004000000}" name="Nilai" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2300-000005000000}" name="LK" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2300-000006000000}" name="CC" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2300-000007000000}" name="Ket" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="No" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="Tanggal" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2300-000003000000}" name="Rincian" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2300-000004000000}" name="Nilai" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2300-000005000000}" name="LK" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2300-000006000000}" name="CC" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2300-000007000000}" name="Ket" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13835,13 +14061,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="No" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="Tanggal" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2400-000003000000}" name="Rincian" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2400-000004000000}" name="Nilai" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2400-000005000000}" name="LK" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2400-000006000000}" name="CC" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2400-000007000000}" name="Ket" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="No" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="Tanggal" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2400-000003000000}" name="Rincian" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2400-000004000000}" name="Nilai" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2400-000005000000}" name="LK" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2400-000006000000}" name="CC" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2400-000007000000}" name="Ket" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13854,13 +14080,13 @@
     <sortCondition ref="C5:C6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="No" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Tanggal" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Rincian" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Nilai" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2500-000005000000}" name="LK" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2500-000006000000}" name="CC" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2500-000007000000}" name="Ket" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="No" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="Tanggal" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="Rincian" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="Nilai" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2500-000005000000}" name="LK" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2500-000006000000}" name="CC" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2500-000007000000}" name="Ket" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13873,13 +14099,13 @@
     <sortCondition ref="C6:C27"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="No" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Tanggal" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2600-000003000000}" name="Rincian" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2600-000004000000}" name="Nilai" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2600-000005000000}" name="LK" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2600-000006000000}" name="CC" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2600-000007000000}" name="Ket" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="No" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="Tanggal" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2600-000003000000}" name="Rincian" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2600-000004000000}" name="Nilai" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2600-000005000000}" name="LK" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2600-000006000000}" name="CC" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2600-000007000000}" name="Ket" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13895,12 +14121,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="No" dataDxfId="263"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Tanggal" dataDxfId="262"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Deskripsi" dataDxfId="261"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Nominal" dataDxfId="260"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="LK" dataDxfId="259"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CC" dataDxfId="258"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="No" dataDxfId="270"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Tanggal" dataDxfId="269"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Deskripsi" dataDxfId="268"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Nominal" dataDxfId="267"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="LK" dataDxfId="266"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CC" dataDxfId="265"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13913,13 +14139,13 @@
     <sortCondition ref="C6:C34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2700-000001000000}" name="No" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2700-000002000000}" name="Tanggal" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2700-000003000000}" name="Rincian" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2700-000004000000}" name="Nilai" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2700-000005000000}" name="LK" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2700-000006000000}" name="CC" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2700-000007000000}" name="Ket" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2700-000001000000}" name="No" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2700-000002000000}" name="Tanggal" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2700-000003000000}" name="Rincian" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2700-000004000000}" name="Nilai" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2700-000005000000}" name="LK" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2700-000006000000}" name="CC" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2700-000007000000}" name="Ket" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13932,13 +14158,13 @@
     <sortCondition ref="C6:C34"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2800-000001000000}" name="No" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2800-000002000000}" name="Tanggal" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2800-000003000000}" name="Rincian" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2800-000004000000}" name="Nilai" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2800-000005000000}" name="LK" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2800-000006000000}" name="CC" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2800-000007000000}" name="Ket" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2800-000001000000}" name="No" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2800-000002000000}" name="Tanggal" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2800-000003000000}" name="Rincian" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2800-000004000000}" name="Nilai" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2800-000005000000}" name="LK" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2800-000006000000}" name="CC" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2800-000007000000}" name="Ket" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13989,13 +14215,13 @@
     <sortCondition ref="C6:C23"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E3D8FAE7-3620-41F7-9540-1C58EE218B8D}" name="No" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E940BA73-AC25-47F8-BE1E-F20882C29BAB}" name="Tanggal" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{60715EBC-9E33-490B-9CDB-E2CB22080899}" name="Rincian" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{8A69F1C2-31F2-4523-8129-78D979C9B4A8}" name="Nilai" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{5A18AB90-8918-44E2-843D-F47C139B8617}" name="LK" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{CD0D33A6-E1FD-424D-99BA-3EC3479A0D39}" name="CC" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{DA5D0D60-32C6-48BF-A69B-D063ACA98691}" name="Ket" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E3D8FAE7-3620-41F7-9540-1C58EE218B8D}" name="No" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{E940BA73-AC25-47F8-BE1E-F20882C29BAB}" name="Tanggal" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{60715EBC-9E33-490B-9CDB-E2CB22080899}" name="Rincian" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{8A69F1C2-31F2-4523-8129-78D979C9B4A8}" name="Nilai" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{5A18AB90-8918-44E2-843D-F47C139B8617}" name="LK" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{CD0D33A6-E1FD-424D-99BA-3EC3479A0D39}" name="CC" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{DA5D0D60-32C6-48BF-A69B-D063ACA98691}" name="Ket" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14008,13 +14234,32 @@
     <sortCondition ref="C6:C17"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{292CD1C4-01CB-455C-A22A-34EFB1EF186D}" name="No" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{28B6A253-74C0-400B-A313-12E10CE0DFBC}" name="Tanggal" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{3A882804-04FD-4076-8485-4D7AF609574A}" name="Rincian" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8AA676F9-18DE-4309-9CBB-2C24A857EAE3}" name="Nilai" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F7E2C015-39A6-494B-829D-4A70CA71AD1D}" name="LK" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{95F2D9B9-51F3-47CA-A79C-7CE00CEB50E3}" name="CC" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{2C28DF1C-EAE7-440B-8046-416F2164776E}" name="Ket" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{292CD1C4-01CB-455C-A22A-34EFB1EF186D}" name="No" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{28B6A253-74C0-400B-A313-12E10CE0DFBC}" name="Tanggal" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3A882804-04FD-4076-8485-4D7AF609574A}" name="Rincian" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{8AA676F9-18DE-4309-9CBB-2C24A857EAE3}" name="Nilai" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{F7E2C015-39A6-494B-829D-4A70CA71AD1D}" name="LK" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{95F2D9B9-51F3-47CA-A79C-7CE00CEB50E3}" name="CC" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{2C28DF1C-EAE7-440B-8046-416F2164776E}" name="Ket" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{494F918A-A947-46FF-9DEC-065591B87067}" name="Table1141315161718212223242627282930313233343536373839404142_4344454647" displayName="Table1141315161718212223242627282930313233343536373839404142_4344454647" ref="B6:H15" totalsRowShown="0">
+  <autoFilter ref="B6:H15" xr:uid="{00000000-0009-0000-0100-00002A000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H15">
+    <sortCondition ref="C6:C15"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{2C235B3C-85E1-4FF5-A220-70AF050C6960}" name="No" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E228B5D6-B74C-48C5-8238-DA098F5489B5}" name="Tanggal" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0D2A543E-F416-4E72-B1A5-C0C96CC1AAB1}" name="Rincian" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{22678635-E5E5-446A-84C9-8B6D976F490B}" name="Nilai" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{BCB19A8D-99BA-4792-A474-B435B09207B9}" name="LK" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{81A71031-A54F-40BC-82F2-82D7BDD2B5F7}" name="CC" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E87548F9-437E-4951-9D48-C0691DDC961A}" name="Ket" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14030,13 +14275,13 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No" dataDxfId="257"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Tanggal" dataDxfId="256"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Deskripsi" dataDxfId="255"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Nominal" dataDxfId="254"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="LK" dataDxfId="253"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="CC" dataDxfId="252"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Nota" dataDxfId="251"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="No" dataDxfId="264"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Tanggal" dataDxfId="263"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Deskripsi" dataDxfId="262"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Nominal" dataDxfId="261"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="LK" dataDxfId="260"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="CC" dataDxfId="259"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Nota" dataDxfId="258"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14046,12 +14291,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table4" displayName="Table4" ref="B5:G81" totalsRowShown="0">
   <autoFilter ref="B5:G81" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="No" dataDxfId="250"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Tanggal" dataDxfId="249"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Rincian" dataDxfId="248"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Nilai" dataDxfId="247"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="LK" dataDxfId="246"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="CC3" dataDxfId="245"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="No" dataDxfId="257"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Tanggal" dataDxfId="256"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Rincian" dataDxfId="255"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Nilai" dataDxfId="254"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="LK" dataDxfId="253"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="CC3" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14061,12 +14306,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table5" displayName="Table5" ref="B5:G57" totalsRowShown="0">
   <autoFilter ref="B5:G57" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="No" dataDxfId="244"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Tanggal" dataDxfId="243"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Rincian" dataDxfId="242"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Nilai" dataDxfId="241"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="LK" dataDxfId="240"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="CC3" dataDxfId="239"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="No" dataDxfId="251"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Tanggal" dataDxfId="250"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Rincian" dataDxfId="249"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Nilai" dataDxfId="248"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="LK" dataDxfId="247"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="CC3" dataDxfId="246"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14076,12 +14321,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table6" displayName="Table6" ref="B5:G73" totalsRowShown="0">
   <autoFilter ref="B5:G73" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="No" dataDxfId="238"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Tanggal" dataDxfId="237"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Rincian" dataDxfId="236"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Nilai" dataDxfId="235"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="LK" dataDxfId="234"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="CC3" dataDxfId="233"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="No" dataDxfId="245"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Tanggal" dataDxfId="244"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Rincian" dataDxfId="243"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Nilai" dataDxfId="242"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="LK" dataDxfId="241"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="CC3" dataDxfId="240"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14091,12 +14336,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table68" displayName="Table68" ref="B5:G68" totalsRowShown="0">
   <autoFilter ref="B5:G68" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="No" dataDxfId="232"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tanggal" dataDxfId="231"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Rincian" dataDxfId="230"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Nilai" dataDxfId="229"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="LK" dataDxfId="228"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="CC3" dataDxfId="227"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="No" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tanggal" dataDxfId="238"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Rincian" dataDxfId="237"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Nilai" dataDxfId="236"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="LK" dataDxfId="235"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="CC3" dataDxfId="234"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16483,19 +16728,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>744</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>745</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="86" t="s">
@@ -17153,19 +17398,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>744</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>745</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="86" t="s">
@@ -18743,19 +18988,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>746</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>747</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -20473,19 +20718,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>748</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>749</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -21844,19 +22089,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>752</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>753</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -23756,19 +24001,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>754</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>755</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -24732,19 +24977,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>781</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>782</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -26606,19 +26851,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>863</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>864</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -27270,19 +27515,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>893</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>894</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -28164,19 +28409,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>937</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>938</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -29114,10 +29359,10 @@
       <c r="F3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="186" t="s">
+      <c r="K3" s="201" t="s">
         <v>127</v>
       </c>
-      <c r="L3" s="186"/>
+      <c r="L3" s="201"/>
     </row>
     <row r="4" spans="1:12" hidden="1">
       <c r="A4" s="156">
@@ -32432,19 +32677,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>981</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>982</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -33466,19 +33711,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>1032</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>1033</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -34002,19 +34247,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>1057</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>1058</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -35168,19 +35413,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>1110</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>1111</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -35977,19 +36222,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>1148</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>1149</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
@@ -36341,19 +36586,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>1161</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>1162</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -37318,19 +37563,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>1202</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>1203</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -38190,19 +38435,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1233</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1234</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -38735,19 +38980,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1257</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1258</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -39271,19 +39516,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1257</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1258</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -39799,10 +40044,10 @@
       <c r="F8" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="187" t="s">
+      <c r="J8" s="202" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="187"/>
+      <c r="K8" s="202"/>
     </row>
     <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="100">
@@ -43125,19 +43370,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1296</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1297</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -43515,19 +43760,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1296</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1297</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -44346,19 +44591,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1346</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1347</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -44973,19 +45218,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1346</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1369</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -45657,19 +45902,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1398</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1399</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -46068,19 +46313,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1409</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1410</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="1" t="s">
@@ -46815,19 +47060,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1444</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1445</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
@@ -47621,19 +47866,19 @@
       <c r="B2" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="189" t="s">
+      <c r="C2" s="204" t="s">
         <v>1479</v>
       </c>
-      <c r="D2" s="189"/>
+      <c r="D2" s="204"/>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1480</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
@@ -48029,19 +48274,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1498</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="204" t="s">
         <v>1499</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -48583,19 +48828,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1521</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="204" t="s">
         <v>1522</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -52178,19 +52423,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1540</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="204" t="s">
         <v>1541</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -52837,19 +53082,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1568</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="204" t="s">
         <v>1569</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -53559,19 +53804,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1599</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="204" t="s">
         <v>1600</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -54281,19 +54526,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1639</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="204" t="s">
         <v>1637</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -54596,7 +54841,7 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -54626,19 +54871,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1641</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="204" t="s">
         <v>1658</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
@@ -55025,7 +55270,7 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -55037,7 +55282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6C42F1-3560-44DE-A697-4F3E99685AA5}">
   <dimension ref="B3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" activeCellId="1" sqref="E14:E17 E7:E12"/>
     </sheetView>
   </sheetViews>
@@ -55055,19 +55300,19 @@
       <c r="B3" t="s">
         <v>739</v>
       </c>
-      <c r="C3" s="189" t="s">
+      <c r="C3" s="204" t="s">
         <v>1641</v>
       </c>
-      <c r="D3" s="189"/>
+      <c r="D3" s="204"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
         <v>735</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="205" t="s">
         <v>1671</v>
       </c>
-      <c r="D4" s="189"/>
+      <c r="D4" s="204"/>
     </row>
     <row r="6" spans="2:8" ht="15" thickBot="1">
       <c r="B6" s="1" t="s">
@@ -55093,16 +55338,16 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="191">
+      <c r="B7" s="186">
         <v>1</v>
       </c>
-      <c r="C7" s="192">
+      <c r="C7" s="187">
         <v>45283</v>
       </c>
-      <c r="D7" s="193" t="s">
+      <c r="D7" s="188" t="s">
         <v>1660</v>
       </c>
-      <c r="E7" s="194">
+      <c r="E7" s="189">
         <v>73000</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -55114,16 +55359,16 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="195">
+      <c r="B8" s="190">
         <v>2</v>
       </c>
-      <c r="C8" s="196">
+      <c r="C8" s="191">
         <v>45284</v>
       </c>
-      <c r="D8" s="197" t="s">
+      <c r="D8" s="192" t="s">
         <v>1661</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="193">
         <v>26000</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -55135,16 +55380,16 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="195">
+      <c r="B9" s="190">
         <v>3</v>
       </c>
-      <c r="C9" s="196">
+      <c r="C9" s="191">
         <v>45284</v>
       </c>
-      <c r="D9" s="197" t="s">
+      <c r="D9" s="192" t="s">
         <v>1662</v>
       </c>
-      <c r="E9" s="198">
+      <c r="E9" s="193">
         <v>25000</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -55156,16 +55401,16 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="195">
+      <c r="B10" s="190">
         <v>4</v>
       </c>
-      <c r="C10" s="196">
+      <c r="C10" s="191">
         <v>45285</v>
       </c>
-      <c r="D10" s="197" t="s">
+      <c r="D10" s="192" t="s">
         <v>1663</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="193">
         <v>25100</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -55177,37 +55422,37 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="195">
+      <c r="B11" s="190">
         <v>5</v>
       </c>
-      <c r="C11" s="196">
+      <c r="C11" s="191">
         <v>45294</v>
       </c>
-      <c r="D11" s="197" t="s">
+      <c r="D11" s="192" t="s">
         <v>1664</v>
       </c>
-      <c r="E11" s="198">
+      <c r="E11" s="193">
         <v>25000</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="G11" s="199" t="s">
+      <c r="G11" s="194" t="s">
         <v>135</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="195">
+      <c r="B12" s="190">
         <v>6</v>
       </c>
-      <c r="C12" s="196">
+      <c r="C12" s="191">
         <v>45294</v>
       </c>
-      <c r="D12" s="197" t="s">
+      <c r="D12" s="192" t="s">
         <v>1665</v>
       </c>
-      <c r="E12" s="198">
+      <c r="E12" s="193">
         <v>69000</v>
       </c>
       <c r="F12" s="9" t="s">
@@ -55219,35 +55464,35 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="200">
+      <c r="B13" s="195">
         <v>7</v>
       </c>
-      <c r="C13" s="201">
+      <c r="C13" s="196">
         <v>45299</v>
       </c>
-      <c r="D13" s="202" t="s">
+      <c r="D13" s="197" t="s">
         <v>1666</v>
       </c>
-      <c r="E13" s="203">
+      <c r="E13" s="198">
         <v>80000</v>
       </c>
-      <c r="F13" s="204" t="s">
+      <c r="F13" s="199" t="s">
         <v>589</v>
       </c>
-      <c r="G13" s="205"/>
+      <c r="G13" s="200"/>
       <c r="H13" s="150"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="195">
+      <c r="B14" s="190">
         <v>8</v>
       </c>
-      <c r="C14" s="196">
+      <c r="C14" s="191">
         <v>45302</v>
       </c>
-      <c r="D14" s="197" t="s">
+      <c r="D14" s="192" t="s">
         <v>1667</v>
       </c>
-      <c r="E14" s="198">
+      <c r="E14" s="193">
         <v>199900</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -55259,16 +55504,16 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="195">
+      <c r="B15" s="190">
         <v>9</v>
       </c>
-      <c r="C15" s="196">
+      <c r="C15" s="191">
         <v>45309</v>
       </c>
-      <c r="D15" s="197" t="s">
+      <c r="D15" s="192" t="s">
         <v>1668</v>
       </c>
-      <c r="E15" s="198">
+      <c r="E15" s="193">
         <v>36000</v>
       </c>
       <c r="F15" s="9" t="s">
@@ -55280,16 +55525,16 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="195">
+      <c r="B16" s="190">
         <v>10</v>
       </c>
-      <c r="C16" s="196">
+      <c r="C16" s="191">
         <v>45315</v>
       </c>
-      <c r="D16" s="197" t="s">
+      <c r="D16" s="192" t="s">
         <v>1669</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="193">
         <v>120000</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -55301,16 +55546,16 @@
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="195">
+      <c r="B17" s="190">
         <v>11</v>
       </c>
-      <c r="C17" s="196">
+      <c r="C17" s="191">
         <v>45315</v>
       </c>
-      <c r="D17" s="197" t="s">
+      <c r="D17" s="192" t="s">
         <v>1670</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="193">
         <v>36000</v>
       </c>
       <c r="F17" s="9" t="s">
@@ -55326,7 +55571,268 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D3169F-47F5-4C4A-95BA-4932046F4326}">
+  <dimension ref="B3:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="131" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C3" s="204" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D3" s="204"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C4" s="206" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D4" s="204"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="207">
+        <v>1</v>
+      </c>
+      <c r="C7" s="208">
+        <v>45319</v>
+      </c>
+      <c r="D7" s="209" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E7" s="210">
+        <v>51500</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="207">
+        <v>2</v>
+      </c>
+      <c r="C8" s="208">
+        <v>45320</v>
+      </c>
+      <c r="D8" s="209" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E8" s="210">
+        <v>33000</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="207">
+        <v>3</v>
+      </c>
+      <c r="C9" s="208">
+        <v>45321</v>
+      </c>
+      <c r="D9" s="209" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E9" s="210">
+        <v>65000</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="207">
+        <v>4</v>
+      </c>
+      <c r="C10" s="208">
+        <v>45320</v>
+      </c>
+      <c r="D10" s="209" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E10" s="210">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="207">
+        <v>5</v>
+      </c>
+      <c r="C11" s="208">
+        <v>45322</v>
+      </c>
+      <c r="D11" s="211" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E11" s="210">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G11" s="213" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="207">
+        <v>6</v>
+      </c>
+      <c r="C12" s="208">
+        <v>45323</v>
+      </c>
+      <c r="D12" s="209" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E12" s="210">
+        <v>150000</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="207">
+        <v>7</v>
+      </c>
+      <c r="C13" s="208">
+        <v>45324</v>
+      </c>
+      <c r="D13" s="209" t="s">
+        <v>769</v>
+      </c>
+      <c r="E13" s="210">
+        <v>173000</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G13" s="214" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="212"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="207">
+        <v>8</v>
+      </c>
+      <c r="C14" s="208">
+        <v>45337</v>
+      </c>
+      <c r="D14" s="209" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E14" s="210">
+        <v>150000</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="207">
+        <v>9</v>
+      </c>
+      <c r="C15" s="208">
+        <v>45337</v>
+      </c>
+      <c r="D15" s="211" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E15" s="210">
+        <v>200000</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -59099,19 +59605,19 @@
       <c r="B2" s="48" t="s">
         <v>733</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>734</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>736</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="86" t="s">
@@ -60686,19 +61192,19 @@
       <c r="B2" s="48" t="s">
         <v>733</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>737</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>738</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="86" t="s">
@@ -61792,19 +62298,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>740</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>741</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="86" t="s">
@@ -63222,19 +63728,19 @@
       <c r="B2" s="48" t="s">
         <v>739</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="203" t="s">
         <v>742</v>
       </c>
-      <c r="D2" s="188"/>
+      <c r="D2" s="203"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="188" t="s">
+      <c r="C3" s="203" t="s">
         <v>743</v>
       </c>
-      <c r="D3" s="188"/>
+      <c r="D3" s="203"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="86" t="s">
